--- a/data/orcamentos/sample_padrao2_japj.xlsx
+++ b/data/orcamentos/sample_padrao2_japj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e66243f108409f2/Área de Trabalho/Itaú/CICF/DataCraft/Verificador Inteligente de Obras/codes/construct-cost-ai/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e66243f108409f2/Área de Trabalho/Itaú/CICF/DataCraft/Verificador Inteligente de Obras/codes/construct-cost-ai/data/orcamentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="80" documentId="11_2B596957557796436140C5F050CBC83569B5E5FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E39250D-D8F3-4996-9083-83386660E9D8}"/>
@@ -634,7 +634,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/orcamentos/sample_padrao2_japj.xlsx
+++ b/data/orcamentos/sample_padrao2_japj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e66243f108409f2/Área de Trabalho/Itaú/CICF/DataCraft/Verificador Inteligente de Obras/codes/construct-cost-ai/data/orcamentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="11_2B596957557796436140C5F050CBC83569B5E5FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E39250D-D8F3-4996-9083-83386660E9D8}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_2B596957557796436140C5F050CBC83569B5E5FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94DFFC89-2EC5-4E21-B01C-7CC8373FCB8B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,130 +96,130 @@
     <t>Descrição</t>
   </si>
   <si>
+    <t>Unitário</t>
+  </si>
+  <si>
+    <t>Comentário</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>OBA-0034</t>
+  </si>
+  <si>
+    <t>FORRO GESSO ACARTONADO</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>OBA-0043</t>
+  </si>
+  <si>
+    <t>LATEX PVA MASSA CORRIDA</t>
+  </si>
+  <si>
+    <t>OBA-0067</t>
+  </si>
+  <si>
+    <t>RETIRADA DE FORRO MANUAL</t>
+  </si>
+  <si>
+    <t>OBB-0232</t>
+  </si>
+  <si>
+    <t>ANDAIME TUBULAR</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>OBB-0470</t>
+  </si>
+  <si>
+    <t>FURO EM CONCRETO</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>OBB-1522</t>
+  </si>
+  <si>
+    <t>CABO CAT6 - VERMELHO</t>
+  </si>
+  <si>
+    <t>NÃO LPU</t>
+  </si>
+  <si>
+    <t>SUPORTE SIMPLES ANTENAS</t>
+  </si>
+  <si>
+    <t>HASTE PARA FIXAÇÃO</t>
+  </si>
+  <si>
+    <t>Construtora</t>
+  </si>
+  <si>
+    <t>QUANTIDADE SINERGIAS</t>
+  </si>
+  <si>
+    <t>DONO</t>
+  </si>
+  <si>
+    <t>C379 - AMPLIFIAÇÃO WIFI</t>
+  </si>
+  <si>
+    <t>LIMPEZA FINAL DE OBRA</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>OBA-3026</t>
+  </si>
+  <si>
+    <t>OBA-3027</t>
+  </si>
+  <si>
+    <t>RESTAURACAO DE FORRO GESSO</t>
+  </si>
+  <si>
+    <t>OBB-3028</t>
+  </si>
+  <si>
+    <t>FIXACAO DE PERFILADO METALICO</t>
+  </si>
+  <si>
+    <t>OBB-3029</t>
+  </si>
+  <si>
+    <t>OBB-3030</t>
+  </si>
+  <si>
+    <t>OBA-3031</t>
+  </si>
+  <si>
+    <t>OBB-3033</t>
+  </si>
+  <si>
+    <t>OBB-3034</t>
+  </si>
+  <si>
+    <t>OBA-3035</t>
+  </si>
+  <si>
+    <t>PASSAGEM DE CABO UTP CAT6</t>
+  </si>
+  <si>
     <t>Un.</t>
-  </si>
-  <si>
-    <t>Unitário</t>
-  </si>
-  <si>
-    <t>Comentário</t>
-  </si>
-  <si>
-    <t>Quantidade</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>OBA-0034</t>
-  </si>
-  <si>
-    <t>FORRO GESSO ACARTONADO</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>OBA-0043</t>
-  </si>
-  <si>
-    <t>LATEX PVA MASSA CORRIDA</t>
-  </si>
-  <si>
-    <t>OBA-0067</t>
-  </si>
-  <si>
-    <t>RETIRADA DE FORRO MANUAL</t>
-  </si>
-  <si>
-    <t>OBB-0232</t>
-  </si>
-  <si>
-    <t>ANDAIME TUBULAR</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>OBB-0470</t>
-  </si>
-  <si>
-    <t>FURO EM CONCRETO</t>
-  </si>
-  <si>
-    <t>UN</t>
-  </si>
-  <si>
-    <t>OBB-1522</t>
-  </si>
-  <si>
-    <t>CABO CAT6 - VERMELHO</t>
-  </si>
-  <si>
-    <t>NÃO LPU</t>
-  </si>
-  <si>
-    <t>SUPORTE SIMPLES ANTENAS</t>
-  </si>
-  <si>
-    <t>HASTE PARA FIXAÇÃO</t>
-  </si>
-  <si>
-    <t>Construtora</t>
-  </si>
-  <si>
-    <t>QUANTIDADE SINERGIAS</t>
-  </si>
-  <si>
-    <t>DONO</t>
-  </si>
-  <si>
-    <t>C379 - AMPLIFIAÇÃO WIFI</t>
-  </si>
-  <si>
-    <t>LIMPEZA FINAL DE OBRA</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>OBA-3026</t>
-  </si>
-  <si>
-    <t>OBA-3027</t>
-  </si>
-  <si>
-    <t>RESTAURACAO DE FORRO GESSO</t>
-  </si>
-  <si>
-    <t>OBB-3028</t>
-  </si>
-  <si>
-    <t>FIXACAO DE PERFILADO METALICO</t>
-  </si>
-  <si>
-    <t>OBB-3029</t>
-  </si>
-  <si>
-    <t>OBB-3030</t>
-  </si>
-  <si>
-    <t>OBA-3031</t>
-  </si>
-  <si>
-    <t>OBB-3033</t>
-  </si>
-  <si>
-    <t>OBB-3034</t>
-  </si>
-  <si>
-    <t>OBA-3035</t>
-  </si>
-  <si>
-    <t>PASSAGEM DE CABO UTP CAT6</t>
   </si>
 </sst>
 </file>
@@ -344,6 +344,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -634,7 +638,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,10 +738,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -756,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -784,33 +788,33 @@
         <v>19</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F14" s="7">
         <v>124.57</v>
@@ -825,16 +829,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="7">
         <v>49.1</v>
@@ -849,16 +853,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="7">
         <v>19.21</v>
@@ -873,16 +877,16 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F17" s="7">
         <v>91.35</v>
@@ -897,16 +901,16 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F18" s="7">
         <v>120.21</v>
@@ -921,16 +925,16 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7">
         <v>7.67</v>
@@ -945,16 +949,16 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="7">
         <v>164.09</v>
@@ -969,16 +973,16 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="7">
         <v>157.29</v>
@@ -993,16 +997,16 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="7">
         <v>104.01</v>
@@ -1017,16 +1021,16 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="7">
         <v>79.44</v>
@@ -1041,16 +1045,16 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="7">
         <v>246.65</v>
@@ -1065,16 +1069,16 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" s="7">
         <v>237.14</v>
@@ -1099,16 +1103,16 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" s="7">
         <v>190.77</v>
@@ -1123,16 +1127,16 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="7">
         <v>137.05000000000001</v>
@@ -1147,16 +1151,16 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" s="7">
         <v>89.82</v>
@@ -1171,16 +1175,16 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" s="7">
         <v>22.25</v>
@@ -1195,16 +1199,16 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F31" s="7">
         <v>169.89</v>
@@ -1219,16 +1223,16 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="7">
         <v>66.81</v>
@@ -1274,7 +1278,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
